--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L_FGI.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L_FGI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B66146-DA67-4162-B42B-820297D4B0E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC619D1C-59BE-426A-9E83-905F911F8721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="A18" sqref="A18:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,8 +1348,8 @@
         <v>22</v>
       </c>
       <c r="G18" s="4">
-        <f>E18*0.08</f>
-        <v>1.6240000000000001E-2</v>
+        <f>E18*0.8</f>
+        <v>0.16240000000000002</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
@@ -1361,7 +1361,7 @@
         <v>78</v>
       </c>
       <c r="Q18" s="5">
-        <f t="shared" ref="Q18:Q19" si="3">IF(E18=H18, 1, IF(F18=$F$2, 1, 0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1385,8 +1385,8 @@
         <v>22</v>
       </c>
       <c r="G19" s="4">
-        <f>E19*0.08</f>
-        <v>5.2800000000000004E-4</v>
+        <f>E19*0.8</f>
+        <v>5.28E-3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
@@ -1398,7 +1398,7 @@
         <v>77</v>
       </c>
       <c r="Q19" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>56</v>
       </c>
       <c r="Q21">
-        <f t="shared" ref="Q21" si="4">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q21" si="3">IF(E21=H21, 1, IF(F21=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
         <v>58</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26:Q28" si="5">IF(E26=H26, 1, IF(F26=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q26:Q28" si="4">IF(E26=H26, 1, IF(F26=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>74</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1729,7 +1729,7 @@
         <v>76</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1803,7 +1803,7 @@
         <v>47</v>
       </c>
       <c r="Q30">
-        <f t="shared" ref="Q30:Q32" si="6">IF(E30=H30, 1, IF(F30=$F$2, 1, 0))</f>
+        <f t="shared" ref="Q30:Q32" si="5">IF(E30=H30, 1, IF(F30=$F$2, 1, 0))</f>
         <v>1</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
         <v>34</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
         <v>46</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>

--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L_FGI.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_glucose_Acrylic_300L_FGI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC619D1C-59BE-426A-9E83-905F911F8721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DA87E8-B772-4952-9376-D11B7C181FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
